--- a/04 Software/_Examples/Color converter RGB565.xlsx
+++ b/04 Software/_Examples/Color converter RGB565.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hj.vanderpol\Documents\IOT\waarBORGfonds\04 Software\_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40981B9-6124-4AF7-9F28-96CE4446C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE2BB43-2AB8-47E7-BEE3-0C2949907D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>RGB888</t>
   </si>
@@ -78,21 +78,12 @@
     <t>text</t>
   </si>
   <si>
-    <t>pump_on</t>
-  </si>
-  <si>
-    <t>pump_off</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
     <t>green</t>
   </si>
   <si>
-    <t>ff0000</t>
-  </si>
-  <si>
     <t>008000</t>
   </si>
   <si>
@@ -106,6 +97,24 @@
   </si>
   <si>
     <t>A3FF12</t>
+  </si>
+  <si>
+    <t>green_radar</t>
+  </si>
+  <si>
+    <t>red_radar</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>radar_pointer</t>
+  </si>
+  <si>
+    <t>dark red</t>
+  </si>
+  <si>
+    <t>a00000</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +326,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA00000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -363,7 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -392,21 +407,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -430,7 +448,27 @@
     <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -457,6 +495,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA00000"/>
       <color rgb="FF808080"/>
       <color rgb="FF282828"/>
       <color rgb="FF404040"/>
@@ -466,7 +505,6 @@
       <color rgb="FF800000"/>
       <color rgb="FF0594FF"/>
       <color rgb="FF757171"/>
-      <color rgb="FFBFBFBF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -482,15 +520,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A3:AMK9" headerRowCount="0" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AMK8">
-    <sortCondition ref="A3:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M9">
+    <sortCondition ref="A3:A9"/>
   </sortState>
   <tableColumns count="1025">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="1025" xr3:uid="{FDC98E48-FF11-4F61-A89A-103A5A603571}" name="Column1025" dataDxfId="1"/>
+    <tableColumn id="1025" xr3:uid="{FDC98E48-FF11-4F61-A89A-103A5A603571}" name="Column1025" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
@@ -498,7 +536,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="1">
       <calculatedColumnFormula>"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
@@ -1815,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,18 +1874,18 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="M1" s="4">
         <v>12</v>
       </c>
@@ -1857,7 +1895,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
-      <c r="E2"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1892,39 +1930,39 @@
         <v>11</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="2">
+      <c r="E3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <f>HEX2DEC(MID($E3,1,2))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F9" si="0">HEX2DEC(MID($E3,1,2))</f>
+      <c r="G3" s="2">
+        <f>HEX2DEC(MID($E3,3,2))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G9" si="1">HEX2DEC(MID($E3,3,2))</f>
+      <c r="H3" s="2">
+        <f>HEX2DEC(MID($E3,5,2))</f>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H9" si="2">HEX2DEC(MID($E3,5,2))</f>
+      <c r="I3" s="2">
+        <f>_xlfn.BITRSHIFT(F3,3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I8" si="3">_xlfn.BITRSHIFT(F3,3)</f>
+      <c r="J3" s="2">
+        <f>_xlfn.BITRSHIFT(G3,2)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J8" si="4">_xlfn.BITRSHIFT(G3,2)</f>
+      <c r="K3" s="2">
+        <f>_xlfn.BITRSHIFT(H3,3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K8" si="5">_xlfn.BITRSHIFT(H3,3)</f>
-        <v>0</v>
-      </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L8" si="6">DEC2HEX(_xlfn.BITLSHIFT(I3,11)+_xlfn.BITLSHIFT(J3,5)+K3,4)</f>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I3,11)+_xlfn.BITLSHIFT(J3,5)+K3,4)</f>
         <v>0000</v>
       </c>
       <c r="M3" s="8" t="str">
-        <f t="shared" ref="M3:M8" si="7">"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</f>
+        <f>"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</f>
         <v>#define CLR_BACKGROUND   0x0000   // 00, 00, 00 = black</v>
       </c>
     </row>
@@ -1938,40 +1976,40 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2">
+      <c r="D4" s="12"/>
+      <c r="E4" s="17">
         <v>282828</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(MID($E4,1,2))</f>
         <v>40</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>HEX2DEC(MID($E4,3,2))</f>
         <v>40</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(MID($E4,5,2))</f>
         <v>40</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.BITRSHIFT(F4,3)</f>
         <v>5</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="4"/>
+        <f>_xlfn.BITRSHIFT(G4,2)</f>
         <v>10</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="5"/>
+        <f>_xlfn.BITRSHIFT(H4,3)</f>
         <v>5</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I4,11)+_xlfn.BITLSHIFT(J4,5)+K4,4)</f>
         <v>2945</v>
       </c>
       <c r="M4" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f>"#define CLR_"&amp;LEFT(UPPER(B4)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L4&amp;"   // "&amp;DEC2HEX(F4,2)&amp;", "&amp;DEC2HEX(G4,2)&amp;", "&amp;DEC2HEX(H4,2)&amp;" = "&amp;C4</f>
         <v>#define CLR_DARK         0x2945   // 28, 28, 28 = dark grey</v>
       </c>
     </row>
@@ -1986,229 +2024,259 @@
         <v>13</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(MID($E5,1,2))</f>
         <v>255</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>HEX2DEC(MID($E5,3,2))</f>
         <v>255</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(MID($E5,5,2))</f>
         <v>255</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.BITRSHIFT(F5,3)</f>
         <v>31</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="4"/>
+        <f>_xlfn.BITRSHIFT(G5,2)</f>
         <v>63</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="5"/>
+        <f>_xlfn.BITRSHIFT(H5,3)</f>
         <v>31</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I5,11)+_xlfn.BITLSHIFT(J5,5)+K5,4)</f>
         <v>FFFF</v>
       </c>
       <c r="M5" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f>"#define CLR_"&amp;LEFT(UPPER(B5)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L5&amp;"   // "&amp;DEC2HEX(F5,2)&amp;", "&amp;DEC2HEX(G5,2)&amp;", "&amp;DEC2HEX(H5,2)&amp;" = "&amp;C5</f>
         <v>#define CLR_TEXT         0xFFFF   // FF, FF, FF = white</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="2">
-        <v>808080</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <f>HEX2DEC(MID($E6,1,2))</f>
+        <v>160</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <f>HEX2DEC(MID($E6,3,2))</f>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>128</v>
+        <f>HEX2DEC(MID($E6,5,2))</f>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6" si="8">_xlfn.BITRSHIFT(F6,3)</f>
-        <v>16</v>
+        <f>_xlfn.BITRSHIFT(F6,3)</f>
+        <v>20</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6" si="9">_xlfn.BITRSHIFT(G6,2)</f>
-        <v>32</v>
+        <f>_xlfn.BITRSHIFT(G6,2)</f>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6" si="10">_xlfn.BITRSHIFT(H6,3)</f>
-        <v>16</v>
+        <f>_xlfn.BITRSHIFT(H6,3)</f>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f t="shared" ref="L6" si="11">DEC2HEX(_xlfn.BITLSHIFT(I6,11)+_xlfn.BITLSHIFT(J6,5)+K6,4)</f>
-        <v>8410</v>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I6,11)+_xlfn.BITLSHIFT(J6,5)+K6,4)</f>
+        <v>A000</v>
       </c>
       <c r="M6" s="8" t="str">
-        <f t="shared" ref="M6" si="12">"#define CLR_"&amp;LEFT(UPPER(B6)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L6&amp;"   // "&amp;DEC2HEX(F6,2)&amp;", "&amp;DEC2HEX(G6,2)&amp;", "&amp;DEC2HEX(H6,2)&amp;" = "&amp;C6</f>
-        <v>#define CLR_LABELS       0x8410   // 80, 80, 80 = grey</v>
+        <f>"#define CLR_"&amp;LEFT(UPPER(B6)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L6&amp;"   // "&amp;DEC2HEX(F6,2)&amp;", "&amp;DEC2HEX(G6,2)&amp;", "&amp;DEC2HEX(H6,2)&amp;" = "&amp;C6</f>
+        <v>#define CLR_RED_RADAR    0xA000   // A0, 00, 00 = dark red</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>20</v>
+      <c r="E7" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(MID($E7,1,2))</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>HEX2DEC(MID($E7,3,2))</f>
         <v>128</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f>HEX2DEC(MID($E7,5,2))</f>
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.BITRSHIFT(F7,3)</f>
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="4"/>
+        <f>_xlfn.BITRSHIFT(G7,2)</f>
         <v>32</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="5"/>
+        <f>_xlfn.BITRSHIFT(H7,3)</f>
         <v>0</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I7,11)+_xlfn.BITLSHIFT(J7,5)+K7,4)</f>
         <v>0400</v>
       </c>
       <c r="M7" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>#define CLR_PUMP_ON      0x0400   // 00, 80, 00 = green</v>
+        <f>"#define CLR_"&amp;LEFT(UPPER(B7)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L7&amp;"   // "&amp;DEC2HEX(F7,2)&amp;", "&amp;DEC2HEX(G7,2)&amp;", "&amp;DEC2HEX(H7,2)&amp;" = "&amp;C7</f>
+        <v>#define CLR_GREEN_RADAR  0x0400   // 00, 80, 00 = green</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
+      <c r="E8" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(MID($E8,1,2))</f>
+        <v>163</v>
+      </c>
+      <c r="G8" s="2">
+        <f>HEX2DEC(MID($E8,3,2))</f>
         <v>255</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>HEX2DEC(MID($E8,5,2))</f>
+        <v>18</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <f>_xlfn.BITRSHIFT(F8,3)</f>
+        <v>20</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>_xlfn.BITRSHIFT(G8,2)</f>
+        <v>63</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>_xlfn.BITRSHIFT(H8,3)</f>
+        <v>2</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>F800</v>
-      </c>
-      <c r="M8" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>#define CLR_PUMP_OFF     0xF800   // FF, 00, 00 = red</v>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I8,11)+_xlfn.BITLSHIFT(J8,5)+K8,4)</f>
+        <v>A7E2</v>
+      </c>
+      <c r="M8" s="14" t="str">
+        <f>"#define CLR_"&amp;LEFT(UPPER(B8)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L8&amp;"   // "&amp;DEC2HEX(F8,2)&amp;", "&amp;DEC2HEX(G8,2)&amp;", "&amp;DEC2HEX(H8,2)&amp;" = "&amp;C8</f>
+        <v>#define CLR_RADAR_POINTE 0xA7E2   // A3, FF, 12 = red</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17">
+        <v>808080</v>
+      </c>
+      <c r="F9" s="2">
+        <f>HEX2DEC(MID($E9,1,2))</f>
+        <v>128</v>
+      </c>
+      <c r="G9" s="2">
+        <f>HEX2DEC(MID($E9,3,2))</f>
+        <v>128</v>
+      </c>
+      <c r="H9" s="2">
+        <f>HEX2DEC(MID($E9,5,2))</f>
+        <v>128</v>
+      </c>
+      <c r="I9" s="2">
+        <f>_xlfn.BITRSHIFT(F9,3)</f>
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>163</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9" si="13">_xlfn.BITRSHIFT(F9,3)</f>
-        <v>20</v>
-      </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9" si="14">_xlfn.BITRSHIFT(G9,2)</f>
-        <v>63</v>
+        <f>_xlfn.BITRSHIFT(G9,2)</f>
+        <v>32</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" ref="K9" si="15">_xlfn.BITRSHIFT(H9,3)</f>
-        <v>2</v>
+        <f>_xlfn.BITRSHIFT(H9,3)</f>
+        <v>16</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f t="shared" ref="L9" si="16">DEC2HEX(_xlfn.BITLSHIFT(I9,11)+_xlfn.BITLSHIFT(J9,5)+K9,4)</f>
-        <v>A7E2</v>
-      </c>
-      <c r="M9" s="16" t="str">
-        <f t="shared" ref="M9" si="17">"#define CLR_"&amp;LEFT(UPPER(B9)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L9&amp;"   // "&amp;DEC2HEX(F9,2)&amp;", "&amp;DEC2HEX(G9,2)&amp;", "&amp;DEC2HEX(H9,2)&amp;" = "&amp;C9</f>
-        <v>#define CLR_PUMP_OFF     0xA7E2   // A3, FF, 12 = red</v>
-      </c>
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I9,11)+_xlfn.BITLSHIFT(J9,5)+K9,4)</f>
+        <v>8410</v>
+      </c>
+      <c r="M9" s="8" t="str">
+        <f>"#define CLR_"&amp;LEFT(UPPER(B9)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L9&amp;"   // "&amp;DEC2HEX(F9,2)&amp;", "&amp;DEC2HEX(G9,2)&amp;", "&amp;DEC2HEX(H9,2)&amp;" = "&amp;C9</f>
+        <v>#define CLR_LABELS       0x8410   // 80, 80, 80 = grey</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/04 Software/_Examples/Color converter RGB565.xlsx
+++ b/04 Software/_Examples/Color converter RGB565.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hj.vanderpol\Documents\IOT\waarBORGfonds\04 Software\_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE2BB43-2AB8-47E7-BEE3-0C2949907D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263676B2-427C-4660-9FE7-3B6EF8E3BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>RGB888</t>
   </si>
@@ -108,13 +108,22 @@
     <t>000000</t>
   </si>
   <si>
-    <t>radar_pointer</t>
-  </si>
-  <si>
     <t>dark red</t>
   </si>
   <si>
     <t>a00000</t>
+  </si>
+  <si>
+    <t>radar_wiper</t>
+  </si>
+  <si>
+    <t>small_text</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>FFFF00</t>
   </si>
 </sst>
 </file>
@@ -247,7 +256,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +341,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -378,7 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -417,13 +432,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,14 +478,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -480,13 +497,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -495,6 +513,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF00"/>
       <color rgb="FFA00000"/>
       <color rgb="FF808080"/>
       <color rgb="FF282828"/>
@@ -504,7 +523,6 @@
       <color rgb="FFFF0000"/>
       <color rgb="FF800000"/>
       <color rgb="FF0594FF"/>
-      <color rgb="FF757171"/>
     </mruColors>
   </colors>
   <extLst>
@@ -519,7 +537,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A3:AMK9" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A3:AMK10" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M9">
     <sortCondition ref="A3:A9"/>
   </sortState>
@@ -528,7 +546,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
     <tableColumn id="1025" xr3:uid="{FDC98E48-FF11-4F61-A89A-103A5A603571}" name="Column1025" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
@@ -536,7 +554,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="0">
       <calculatedColumnFormula>"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
@@ -1855,14 +1873,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="2" customWidth="1"/>
@@ -1876,16 +1894,16 @@
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="M1" s="4">
         <v>12</v>
       </c>
@@ -1895,7 +1913,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="17"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2">
@@ -1977,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>282828</v>
       </c>
       <c r="F4" s="2">
@@ -2024,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2">
@@ -2065,26 +2083,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
         <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <f>HEX2DEC(MID($E6,1,2))</f>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2">
         <f>HEX2DEC(MID($E6,3,2))</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H6" s="2">
         <f>HEX2DEC(MID($E6,5,2))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2">
         <f>_xlfn.BITRSHIFT(F6,3)</f>
@@ -2092,38 +2110,38 @@
       </c>
       <c r="J6" s="2">
         <f>_xlfn.BITRSHIFT(G6,2)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2">
         <f>_xlfn.BITRSHIFT(H6,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2" t="str">
         <f>DEC2HEX(_xlfn.BITLSHIFT(I6,11)+_xlfn.BITLSHIFT(J6,5)+K6,4)</f>
-        <v>A000</v>
-      </c>
-      <c r="M6" s="8" t="str">
+        <v>A7E2</v>
+      </c>
+      <c r="M6" s="14" t="str">
         <f>"#define CLR_"&amp;LEFT(UPPER(B6)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L6&amp;"   // "&amp;DEC2HEX(F6,2)&amp;", "&amp;DEC2HEX(G6,2)&amp;", "&amp;DEC2HEX(H6,2)&amp;" = "&amp;C6</f>
-        <v>#define CLR_RED_RADAR    0xA000   // A0, 00, 00 = dark red</v>
+        <v>#define CLR_RADAR_WIPER  0xA7E2   // A3, FF, 12 = red</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="17" t="s">
-        <v>17</v>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16">
+        <v>808080</v>
       </c>
       <c r="F7" s="2">
         <f>HEX2DEC(MID($E7,1,2))</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G7" s="2">
         <f>HEX2DEC(MID($E7,3,2))</f>
@@ -2131,11 +2149,11 @@
       </c>
       <c r="H7" s="2">
         <f>HEX2DEC(MID($E7,5,2))</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2">
         <f>_xlfn.BITRSHIFT(F7,3)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2">
         <f>_xlfn.BITRSHIFT(G7,2)</f>
@@ -2143,15 +2161,15 @@
       </c>
       <c r="K7" s="2">
         <f>_xlfn.BITRSHIFT(H7,3)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>DEC2HEX(_xlfn.BITLSHIFT(I7,11)+_xlfn.BITLSHIFT(J7,5)+K7,4)</f>
-        <v>0400</v>
+        <v>8410</v>
       </c>
       <c r="M7" s="8" t="str">
         <f>"#define CLR_"&amp;LEFT(UPPER(B7)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L7&amp;"   // "&amp;DEC2HEX(F7,2)&amp;", "&amp;DEC2HEX(G7,2)&amp;", "&amp;DEC2HEX(H7,2)&amp;" = "&amp;C7</f>
-        <v>#define CLR_GREEN_RADAR  0x0400   // 00, 80, 00 = green</v>
+        <v>#define CLR_LABELS       0x8410   // 80, 80, 80 = grey</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2159,26 +2177,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="17" t="s">
-        <v>21</v>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="2">
         <f>HEX2DEC(MID($E8,1,2))</f>
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G8" s="2">
         <f>HEX2DEC(MID($E8,3,2))</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <f>HEX2DEC(MID($E8,5,2))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <f>_xlfn.BITRSHIFT(F8,3)</f>
@@ -2186,38 +2204,38 @@
       </c>
       <c r="J8" s="2">
         <f>_xlfn.BITRSHIFT(G8,2)</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <f>_xlfn.BITRSHIFT(H8,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>DEC2HEX(_xlfn.BITLSHIFT(I8,11)+_xlfn.BITLSHIFT(J8,5)+K8,4)</f>
-        <v>A7E2</v>
-      </c>
-      <c r="M8" s="14" t="str">
+        <v>A000</v>
+      </c>
+      <c r="M8" s="8" t="str">
         <f>"#define CLR_"&amp;LEFT(UPPER(B8)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L8&amp;"   // "&amp;DEC2HEX(F8,2)&amp;", "&amp;DEC2HEX(G8,2)&amp;", "&amp;DEC2HEX(H8,2)&amp;" = "&amp;C8</f>
-        <v>#define CLR_RADAR_POINTE 0xA7E2   // A3, FF, 12 = red</v>
+        <v>#define CLR_RED_RADAR    0xA000   // A0, 00, 00 = dark red</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17">
-        <v>808080</v>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="2">
         <f>HEX2DEC(MID($E9,1,2))</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <f>HEX2DEC(MID($E9,3,2))</f>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="H9" s="2">
         <f>HEX2DEC(MID($E9,5,2))</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <f>_xlfn.BITRSHIFT(F9,3)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <f>_xlfn.BITRSHIFT(G9,2)</f>
@@ -2237,37 +2255,78 @@
       </c>
       <c r="K9" s="2">
         <f>_xlfn.BITRSHIFT(H9,3)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>DEC2HEX(_xlfn.BITLSHIFT(I9,11)+_xlfn.BITLSHIFT(J9,5)+K9,4)</f>
-        <v>8410</v>
+        <v>0400</v>
       </c>
       <c r="M9" s="8" t="str">
         <f>"#define CLR_"&amp;LEFT(UPPER(B9)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L9&amp;"   // "&amp;DEC2HEX(F9,2)&amp;", "&amp;DEC2HEX(G9,2)&amp;", "&amp;DEC2HEX(H9,2)&amp;" = "&amp;C9</f>
-        <v>#define CLR_LABELS       0x8410   // 80, 80, 80 = grey</v>
+        <v>#define CLR_GREEN_RADAR  0x0400   // 00, 80, 00 = green</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="17"/>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <f>HEX2DEC(MID($E10,1,2))</f>
+        <v>255</v>
+      </c>
+      <c r="G10" s="2">
+        <f>HEX2DEC(MID($E10,3,2))</f>
+        <v>255</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HEX2DEC(MID($E10,5,2))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f>_xlfn.BITRSHIFT(F10,3)</f>
+        <v>31</v>
+      </c>
+      <c r="J10" s="2">
+        <f>_xlfn.BITRSHIFT(G10,2)</f>
+        <v>63</v>
+      </c>
+      <c r="K10" s="2">
+        <f>_xlfn.BITRSHIFT(H10,3)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(I10,11)+_xlfn.BITLSHIFT(J10,5)+K10,4)</f>
+        <v>FFE0</v>
+      </c>
+      <c r="M10" s="8" t="str">
+        <f>"#define CLR_"&amp;LEFT(UPPER(B10)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L10&amp;"   // "&amp;DEC2HEX(F10,2)&amp;", "&amp;DEC2HEX(G10,2)&amp;", "&amp;DEC2HEX(H10,2)&amp;" = "&amp;C10</f>
+        <v>#define CLR_SMALL_TEXT   0xFFE0   // FF, FF, 00 = yellow</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="15"/>

--- a/04 Software/_Examples/Color converter RGB565.xlsx
+++ b/04 Software/_Examples/Color converter RGB565.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hj.vanderpol\Documents\IOT\waarBORGfonds\04 Software\_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263676B2-427C-4660-9FE7-3B6EF8E3BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1648DB8-ADD1-40D1-9985-40F137ED0FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>RGB888</t>
   </si>
@@ -90,15 +90,9 @@
     <t>labels</t>
   </si>
   <si>
-    <t>grey</t>
-  </si>
-  <si>
     <t>RGB</t>
   </si>
   <si>
-    <t>A3FF12</t>
-  </si>
-  <si>
     <t>green_radar</t>
   </si>
   <si>
@@ -120,10 +114,13 @@
     <t>small_text</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>FFFF00</t>
+    <t>FF0000</t>
+  </si>
+  <si>
+    <t>light grey</t>
+  </si>
+  <si>
+    <t>808080</t>
   </si>
 </sst>
 </file>
@@ -256,7 +253,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,12 +338,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -393,7 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -440,9 +431,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -513,16 +501,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF808080"/>
+      <color rgb="FF820000"/>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FFE0E0E0"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFA00000"/>
-      <color rgb="FF808080"/>
       <color rgb="FF282828"/>
       <color rgb="FF404040"/>
       <color rgb="FF008000"/>
-      <color rgb="FF00C000"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF800000"/>
-      <color rgb="FF0594FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1873,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>0</v>
@@ -1949,38 +1937,38 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <f>HEX2DEC(MID($E3,1,2))</f>
+        <f t="shared" ref="F3:F10" si="0">HEX2DEC(MID($E3,1,2))</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>HEX2DEC(MID($E3,3,2))</f>
+        <f t="shared" ref="G3:G10" si="1">HEX2DEC(MID($E3,3,2))</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>HEX2DEC(MID($E3,5,2))</f>
+        <f t="shared" ref="H3:H10" si="2">HEX2DEC(MID($E3,5,2))</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f>_xlfn.BITRSHIFT(F3,3)</f>
+        <f t="shared" ref="I3:I10" si="3">_xlfn.BITRSHIFT(F3,3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f>_xlfn.BITRSHIFT(G3,2)</f>
+        <f t="shared" ref="J3:J10" si="4">_xlfn.BITRSHIFT(G3,2)</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>_xlfn.BITRSHIFT(H3,3)</f>
+        <f t="shared" ref="K3:K10" si="5">_xlfn.BITRSHIFT(H3,3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I3,11)+_xlfn.BITLSHIFT(J3,5)+K3,4)</f>
+        <f t="shared" ref="L3:L10" si="6">DEC2HEX(_xlfn.BITLSHIFT(I3,11)+_xlfn.BITLSHIFT(J3,5)+K3,4)</f>
         <v>0000</v>
       </c>
       <c r="M3" s="8" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</f>
+        <f t="shared" ref="M3:M10" si="7">"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</f>
         <v>#define CLR_BACKGROUND   0x0000   // 00, 00, 00 = black</v>
       </c>
     </row>
@@ -1999,35 +1987,35 @@
         <v>282828</v>
       </c>
       <c r="F4" s="2">
-        <f>HEX2DEC(MID($E4,1,2))</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G4" s="2">
-        <f>HEX2DEC(MID($E4,3,2))</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H4" s="2">
-        <f>HEX2DEC(MID($E4,5,2))</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I4" s="2">
-        <f>_xlfn.BITRSHIFT(F4,3)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J4" s="2">
-        <f>_xlfn.BITRSHIFT(G4,2)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K4" s="2">
-        <f>_xlfn.BITRSHIFT(H4,3)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I4,11)+_xlfn.BITLSHIFT(J4,5)+K4,4)</f>
+        <f t="shared" si="6"/>
         <v>2945</v>
       </c>
       <c r="M4" s="8" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B4)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L4&amp;"   // "&amp;DEC2HEX(F4,2)&amp;", "&amp;DEC2HEX(G4,2)&amp;", "&amp;DEC2HEX(H4,2)&amp;" = "&amp;C4</f>
+        <f t="shared" si="7"/>
         <v>#define CLR_DARK         0x2945   // 28, 28, 28 = dark grey</v>
       </c>
     </row>
@@ -2046,35 +2034,35 @@
         <v>8</v>
       </c>
       <c r="F5" s="2">
-        <f>HEX2DEC(MID($E5,1,2))</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="G5" s="2">
-        <f>HEX2DEC(MID($E5,3,2))</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="H5" s="2">
-        <f>HEX2DEC(MID($E5,5,2))</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="I5" s="2">
-        <f>_xlfn.BITRSHIFT(F5,3)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="J5" s="2">
-        <f>_xlfn.BITRSHIFT(G5,2)</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="K5" s="2">
-        <f>_xlfn.BITRSHIFT(H5,3)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I5,11)+_xlfn.BITLSHIFT(J5,5)+K5,4)</f>
+        <f t="shared" si="6"/>
         <v>FFFF</v>
       </c>
       <c r="M5" s="8" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B5)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L5&amp;"   // "&amp;DEC2HEX(F5,2)&amp;", "&amp;DEC2HEX(G5,2)&amp;", "&amp;DEC2HEX(H5,2)&amp;" = "&amp;C5</f>
+        <f t="shared" si="7"/>
         <v>#define CLR_TEXT         0xFFFF   // FF, FF, FF = white</v>
       </c>
     </row>
@@ -2083,46 +2071,46 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
-        <f>HEX2DEC(MID($E6,1,2))</f>
-        <v>163</v>
+        <f t="shared" si="0"/>
+        <v>255</v>
       </c>
       <c r="G6" s="2">
-        <f>HEX2DEC(MID($E6,3,2))</f>
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>HEX2DEC(MID($E6,5,2))</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f>_xlfn.BITRSHIFT(F6,3)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="J6" s="2">
-        <f>_xlfn.BITRSHIFT(G6,2)</f>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f>_xlfn.BITRSHIFT(H6,3)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I6,11)+_xlfn.BITLSHIFT(J6,5)+K6,4)</f>
-        <v>A7E2</v>
+        <f t="shared" si="6"/>
+        <v>F800</v>
       </c>
       <c r="M6" s="14" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B6)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L6&amp;"   // "&amp;DEC2HEX(F6,2)&amp;", "&amp;DEC2HEX(G6,2)&amp;", "&amp;DEC2HEX(H6,2)&amp;" = "&amp;C6</f>
-        <v>#define CLR_RADAR_WIPER  0xA7E2   // A3, FF, 12 = red</v>
+        <f t="shared" si="7"/>
+        <v>#define CLR_RADAR_WIPER  0xF800   // FF, 00, 00 = red</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2133,43 +2121,43 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16">
-        <v>808080</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="2">
-        <f>HEX2DEC(MID($E7,1,2))</f>
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>255</v>
       </c>
       <c r="G7" s="2">
-        <f>HEX2DEC(MID($E7,3,2))</f>
-        <v>128</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>HEX2DEC(MID($E7,5,2))</f>
-        <v>128</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f>_xlfn.BITRSHIFT(F7,3)</f>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="J7" s="2">
-        <f>_xlfn.BITRSHIFT(G7,2)</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f>_xlfn.BITRSHIFT(H7,3)</f>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I7,11)+_xlfn.BITLSHIFT(J7,5)+K7,4)</f>
-        <v>8410</v>
+        <f t="shared" si="6"/>
+        <v>F800</v>
       </c>
       <c r="M7" s="8" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B7)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L7&amp;"   // "&amp;DEC2HEX(F7,2)&amp;", "&amp;DEC2HEX(G7,2)&amp;", "&amp;DEC2HEX(H7,2)&amp;" = "&amp;C7</f>
-        <v>#define CLR_LABELS       0x8410   // 80, 80, 80 = grey</v>
+        <f t="shared" si="7"/>
+        <v>#define CLR_LABELS       0xF800   // FF, 00, 00 = red</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2177,45 +2165,45 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
-        <f>HEX2DEC(MID($E8,1,2))</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="G8" s="2">
-        <f>HEX2DEC(MID($E8,3,2))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f>HEX2DEC(MID($E8,5,2))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f>_xlfn.BITRSHIFT(F8,3)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J8" s="2">
-        <f>_xlfn.BITRSHIFT(G8,2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f>_xlfn.BITRSHIFT(H8,3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I8,11)+_xlfn.BITLSHIFT(J8,5)+K8,4)</f>
+        <f t="shared" si="6"/>
         <v>A000</v>
       </c>
       <c r="M8" s="8" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B8)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L8&amp;"   // "&amp;DEC2HEX(F8,2)&amp;", "&amp;DEC2HEX(G8,2)&amp;", "&amp;DEC2HEX(H8,2)&amp;" = "&amp;C8</f>
+        <f t="shared" si="7"/>
         <v>#define CLR_RED_RADAR    0xA000   // A0, 00, 00 = dark red</v>
       </c>
     </row>
@@ -2224,7 +2212,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -2234,80 +2222,80 @@
         <v>17</v>
       </c>
       <c r="F9" s="2">
-        <f>HEX2DEC(MID($E9,1,2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f>HEX2DEC(MID($E9,3,2))</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="H9" s="2">
-        <f>HEX2DEC(MID($E9,5,2))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>_xlfn.BITRSHIFT(F9,3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <f>_xlfn.BITRSHIFT(G9,2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K9" s="2">
-        <f>_xlfn.BITRSHIFT(H9,3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I9,11)+_xlfn.BITLSHIFT(J9,5)+K9,4)</f>
+        <f t="shared" si="6"/>
         <v>0400</v>
       </c>
       <c r="M9" s="8" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B9)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L9&amp;"   // "&amp;DEC2HEX(F9,2)&amp;", "&amp;DEC2HEX(G9,2)&amp;", "&amp;DEC2HEX(H9,2)&amp;" = "&amp;C9</f>
+        <f t="shared" si="7"/>
         <v>#define CLR_GREEN_RADAR  0x0400   // 00, 80, 00 = green</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="2">
-        <f>HEX2DEC(MID($E10,1,2))</f>
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>128</v>
       </c>
       <c r="G10" s="2">
-        <f>HEX2DEC(MID($E10,3,2))</f>
-        <v>255</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="H10" s="2">
-        <f>HEX2DEC(MID($E10,5,2))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>128</v>
       </c>
       <c r="I10" s="2">
-        <f>_xlfn.BITRSHIFT(F10,3)</f>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="J10" s="2">
-        <f>_xlfn.BITRSHIFT(G10,2)</f>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="K10" s="2">
-        <f>_xlfn.BITRSHIFT(H10,3)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(I10,11)+_xlfn.BITLSHIFT(J10,5)+K10,4)</f>
-        <v>FFE0</v>
+        <f t="shared" si="6"/>
+        <v>8410</v>
       </c>
       <c r="M10" s="8" t="str">
-        <f>"#define CLR_"&amp;LEFT(UPPER(B10)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L10&amp;"   // "&amp;DEC2HEX(F10,2)&amp;", "&amp;DEC2HEX(G10,2)&amp;", "&amp;DEC2HEX(H10,2)&amp;" = "&amp;C10</f>
-        <v>#define CLR_SMALL_TEXT   0xFFE0   // FF, FF, 00 = yellow</v>
+        <f t="shared" si="7"/>
+        <v>#define CLR_SMALL_TEXT   0x8410   // 80, 80, 80 = light grey</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">

--- a/04 Software/_Examples/Color converter RGB565.xlsx
+++ b/04 Software/_Examples/Color converter RGB565.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hj.vanderpol\Documents\IOT\waarBORGfonds\04 Software\_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1648DB8-ADD1-40D1-9985-40F137ED0FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE6D5B-2247-43AE-B773-830FCB8584F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>RGB888</t>
   </si>
@@ -81,21 +81,12 @@
     <t>red</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>008000</t>
-  </si>
-  <si>
     <t>labels</t>
   </si>
   <si>
     <t>RGB</t>
   </si>
   <si>
-    <t>green_radar</t>
-  </si>
-  <si>
     <t>red_radar</t>
   </si>
   <si>
@@ -121,6 +112,27 @@
   </si>
   <si>
     <t>808080</t>
+  </si>
+  <si>
+    <t>radar_rays</t>
+  </si>
+  <si>
+    <t>radar_contour</t>
+  </si>
+  <si>
+    <t>dark green</t>
+  </si>
+  <si>
+    <t>light green</t>
+  </si>
+  <si>
+    <t>008040</t>
+  </si>
+  <si>
+    <t>00E080</t>
+  </si>
+  <si>
+    <t>green_ok</t>
   </si>
 </sst>
 </file>
@@ -253,7 +265,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +328,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF282828"/>
         <bgColor rgb="FF404040"/>
       </patternFill>
@@ -335,6 +341,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA00000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008040"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E080"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -384,7 +402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,9 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,11 +441,17 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -501,6 +522,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00E080"/>
+      <color rgb="FF00DE6F"/>
+      <color rgb="FF008040"/>
       <color rgb="FF808080"/>
       <color rgb="FF820000"/>
       <color rgb="FFC0C0C0"/>
@@ -508,9 +532,6 @@
       <color rgb="FFFF0000"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFA00000"/>
-      <color rgb="FF282828"/>
-      <color rgb="FF404040"/>
-      <color rgb="FF008000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -525,9 +546,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A3:AMK10" headerRowCount="0" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M9">
-    <sortCondition ref="A3:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A3:AMK12" headerRowCount="0" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M8">
+    <sortCondition ref="A3:A8"/>
   </sortState>
   <tableColumns count="1025">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
@@ -1859,17 +1880,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.21875" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="2" customWidth="1"/>
     <col min="6" max="11" width="6.6640625" style="2" customWidth="1"/>
@@ -1880,20 +1901,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="M1" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1901,7 +1922,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1936,40 +1957,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="16" t="s">
-        <v>22</v>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F10" si="0">HEX2DEC(MID($E3,1,2))</f>
+        <f t="shared" ref="F3:F12" si="0">HEX2DEC(MID($E3,1,2))</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G10" si="1">HEX2DEC(MID($E3,3,2))</f>
+        <f t="shared" ref="G3:G12" si="1">HEX2DEC(MID($E3,3,2))</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H10" si="2">HEX2DEC(MID($E3,5,2))</f>
+        <f t="shared" ref="H3:H12" si="2">HEX2DEC(MID($E3,5,2))</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I10" si="3">_xlfn.BITRSHIFT(F3,3)</f>
+        <f t="shared" ref="I3:I9" si="3">_xlfn.BITRSHIFT(F3,3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J10" si="4">_xlfn.BITRSHIFT(G3,2)</f>
+        <f t="shared" ref="J3:J9" si="4">_xlfn.BITRSHIFT(G3,2)</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K10" si="5">_xlfn.BITRSHIFT(H3,3)</f>
+        <f t="shared" ref="K3:K9" si="5">_xlfn.BITRSHIFT(H3,3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L10" si="6">DEC2HEX(_xlfn.BITLSHIFT(I3,11)+_xlfn.BITLSHIFT(J3,5)+K3,4)</f>
+        <f t="shared" ref="L3:L9" si="6">DEC2HEX(_xlfn.BITLSHIFT(I3,11)+_xlfn.BITLSHIFT(J3,5)+K3,4)</f>
         <v>0000</v>
       </c>
       <c r="M3" s="8" t="str">
-        <f t="shared" ref="M3:M10" si="7">"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</f>
-        <v>#define CLR_BACKGROUND   0x0000   // 00, 00, 00 = black</v>
+        <f t="shared" ref="M3:M9" si="7">"#define CLR_"&amp;LEFT(UPPER(B3)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L3&amp;"   // "&amp;DEC2HEX(F3,2)&amp;", "&amp;DEC2HEX(G3,2)&amp;", "&amp;DEC2HEX(H3,2)&amp;" = "&amp;C3</f>
+        <v>#define CLR_BACKGROUND     0x0000   // 00, 00, 00 = black</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1982,8 +2003,8 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16">
+      <c r="D4" s="11"/>
+      <c r="E4" s="15">
         <v>282828</v>
       </c>
       <c r="F4" s="2">
@@ -2016,7 +2037,7 @@
       </c>
       <c r="M4" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>#define CLR_DARK         0x2945   // 28, 28, 28 = dark grey</v>
+        <v>#define CLR_DARK           0x2945   // 28, 28, 28 = dark grey</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2030,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2">
@@ -2063,7 +2084,7 @@
       </c>
       <c r="M5" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>#define CLR_TEXT         0xFFFF   // FF, FF, FF = white</v>
+        <v>#define CLR_TEXT           0xFFFF   // FF, FF, FF = white</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2071,14 +2092,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="16" t="s">
-        <v>27</v>
+      <c r="E6" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
@@ -2108,9 +2129,9 @@
         <f t="shared" si="6"/>
         <v>F800</v>
       </c>
-      <c r="M6" s="14" t="str">
+      <c r="M6" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>#define CLR_RADAR_WIPER  0xF800   // FF, 00, 00 = red</v>
+        <v>#define CLR_RADAR_WIPER    0xF800   // FF, 00, 00 = red</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2118,14 +2139,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
+      <c r="E7" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
@@ -2157,7 +2178,7 @@
       </c>
       <c r="M7" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>#define CLR_LABELS       0xF800   // FF, 00, 00 = red</v>
+        <v>#define CLR_LABELS         0xF800   // FF, 00, 00 = red</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2165,14 +2186,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
@@ -2204,7 +2225,7 @@
       </c>
       <c r="M8" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>#define CLR_RED_RADAR    0xA000   // A0, 00, 00 = dark red</v>
+        <v>#define CLR_RED_RADAR      0xA000   // A0, 00, 00 = dark red</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2212,18 +2233,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
@@ -2231,11 +2252,11 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="4"/>
@@ -2243,31 +2264,34 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>0400</v>
+        <v>8410</v>
       </c>
       <c r="M9" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>#define CLR_GREEN_RADAR  0x0400   // 00, 80, 00 = green</v>
+        <v>#define CLR_SMALL_TEXT     0x8410   // 80, 80, 80 = light grey</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16" t="s">
         <v>29</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
@@ -2275,55 +2299,140 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" ref="I10" si="8">_xlfn.BITRSHIFT(F10,3)</f>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J10" si="9">_xlfn.BITRSHIFT(G10,2)</f>
         <v>32</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" ref="K10" si="10">_xlfn.BITRSHIFT(H10,3)</f>
+        <v>8</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>8410</v>
-      </c>
-      <c r="M10" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>#define CLR_SMALL_TEXT   0x8410   // 80, 80, 80 = light grey</v>
+        <f t="shared" ref="L10" si="11">DEC2HEX(_xlfn.BITLSHIFT(I10,11)+_xlfn.BITLSHIFT(J10,5)+K10,4)</f>
+        <v>0408</v>
+      </c>
+      <c r="M10" s="13" t="str">
+        <f t="shared" ref="M10" si="12">"#define CLR_"&amp;LEFT(UPPER(B10)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L10&amp;"   // "&amp;DEC2HEX(F10,2)&amp;", "&amp;DEC2HEX(G10,2)&amp;", "&amp;DEC2HEX(H10,2)&amp;" = "&amp;C10</f>
+        <v>#define CLR_RADAR_RAYS     0x0408   // 00, 80, 40 = dark green</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="16"/>
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ref="I11:I12" si="13">_xlfn.BITRSHIFT(F11,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:J12" si="14">_xlfn.BITRSHIFT(G11,2)</f>
+        <v>56</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11:K12" si="15">_xlfn.BITRSHIFT(H11,3)</f>
+        <v>16</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" ref="L11:L12" si="16">DEC2HEX(_xlfn.BITLSHIFT(I11,11)+_xlfn.BITLSHIFT(J11,5)+K11,4)</f>
+        <v>0710</v>
+      </c>
+      <c r="M11" s="13" t="str">
+        <f t="shared" ref="M11:M12" si="17">"#define CLR_"&amp;LEFT(UPPER(B11)&amp;REPT(" ",$M$1),$M$1)&amp;" 0x"&amp;L11&amp;"   // "&amp;DEC2HEX(F11,2)&amp;", "&amp;DEC2HEX(G11,2)&amp;", "&amp;DEC2HEX(H11,2)&amp;" = "&amp;C11</f>
+        <v>#define CLR_RADAR_CONTOUR  0x0710   // 00, E0, 80 = light green</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="16"/>
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>0408</v>
+      </c>
+      <c r="M12" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>#define CLR_GREEN_OK       0x0408   // 00, 80, 40 = dark green</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="16"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="16"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="15"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="15"/>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
